--- a/artfynd/A 7650-2021.xlsx
+++ b/artfynd/A 7650-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102127508</v>
+        <v>102127492</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>410919.3226665345</v>
+        <v>411208.4331218663</v>
       </c>
       <c r="R3" t="n">
-        <v>6710006.014335259</v>
+        <v>6710185.104502581</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102127492</v>
+        <v>102127474</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411208.4331218663</v>
+        <v>411246.1139113368</v>
       </c>
       <c r="R4" t="n">
-        <v>6710185.104502581</v>
+        <v>6710272.845320603</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102127474</v>
+        <v>102126343</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411246.1139113368</v>
+        <v>411312.3384032818</v>
       </c>
       <c r="R5" t="n">
-        <v>6710272.845320603</v>
+        <v>6710317.52169905</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102126343</v>
+        <v>102126324</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>411312.3384032818</v>
+        <v>411195.7272399327</v>
       </c>
       <c r="R6" t="n">
-        <v>6710317.52169905</v>
+        <v>6710149.949488859</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102126324</v>
+        <v>102127501</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>411195.7272399327</v>
+        <v>411266.0902123675</v>
       </c>
       <c r="R7" t="n">
-        <v>6710149.949488859</v>
+        <v>6710182.210000515</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102127458</v>
+        <v>102127489</v>
       </c>
       <c r="B8" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>410938.7642541217</v>
+        <v>411289.3351326549</v>
       </c>
       <c r="R8" t="n">
-        <v>6709974.006810497</v>
+        <v>6710345.17838044</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102127501</v>
+        <v>102126341</v>
       </c>
       <c r="B9" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>411266.0902123675</v>
+        <v>411311.0937174059</v>
       </c>
       <c r="R9" t="n">
-        <v>6710182.210000515</v>
+        <v>6710367.302564125</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102127465</v>
+        <v>102127471</v>
       </c>
       <c r="B10" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>410938.739980302</v>
+        <v>411204.0193730929</v>
       </c>
       <c r="R10" t="n">
-        <v>6709973.02214841</v>
+        <v>6710186.198190426</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102127504</v>
+        <v>102127469</v>
       </c>
       <c r="B11" t="n">
-        <v>78098</v>
+        <v>89412</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>410934.0028326925</v>
+        <v>411203.9951711143</v>
       </c>
       <c r="R11" t="n">
-        <v>6709981.021008047</v>
+        <v>6710185.21358655</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>102127489</v>
+        <v>102127508</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>411289.3351326549</v>
+        <v>410919.3226665345</v>
       </c>
       <c r="R12" t="n">
-        <v>6710345.17838044</v>
+        <v>6710006.014335259</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102126327</v>
+        <v>102127458</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410957.0345095119</v>
+        <v>410938.7642541217</v>
       </c>
       <c r="R13" t="n">
-        <v>6709974.541719727</v>
+        <v>6709974.006810497</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102126341</v>
+        <v>102127465</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>411311.0937174059</v>
+        <v>410938.739980302</v>
       </c>
       <c r="R14" t="n">
-        <v>6710367.302564125</v>
+        <v>6709973.02214841</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102126321</v>
+        <v>102127504</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>410950.9591356653</v>
+        <v>410934.0028326925</v>
       </c>
       <c r="R15" t="n">
-        <v>6709968.287268362</v>
+        <v>6709981.021008047</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2236,19 +2236,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102127471</v>
+        <v>102126327</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>411204.0193730929</v>
+        <v>410957.0345095119</v>
       </c>
       <c r="R16" t="n">
-        <v>6710186.198190426</v>
+        <v>6709974.541719727</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2348,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102127469</v>
+        <v>102126321</v>
       </c>
       <c r="B17" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>411203.9951711143</v>
+        <v>410950.9591356653</v>
       </c>
       <c r="R17" t="n">
-        <v>6710185.21358655</v>
+        <v>6709968.287268362</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2460,12 +2460,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 7650-2021.xlsx
+++ b/artfynd/A 7650-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102127492</v>
+        <v>102127508</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>411208.4331218663</v>
+        <v>410919.3226665345</v>
       </c>
       <c r="R3" t="n">
-        <v>6710185.104502581</v>
+        <v>6710006.014335259</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102127474</v>
+        <v>102127492</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411246.1139113368</v>
+        <v>411208.4331218663</v>
       </c>
       <c r="R4" t="n">
-        <v>6710272.845320603</v>
+        <v>6710185.104502581</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102126343</v>
+        <v>102127474</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411312.3384032818</v>
+        <v>411246.1139113368</v>
       </c>
       <c r="R5" t="n">
-        <v>6710317.52169905</v>
+        <v>6710272.845320603</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102126324</v>
+        <v>102126343</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>411195.7272399327</v>
+        <v>411312.3384032818</v>
       </c>
       <c r="R6" t="n">
-        <v>6710149.949488859</v>
+        <v>6710317.52169905</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102127501</v>
+        <v>102126324</v>
       </c>
       <c r="B7" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>411266.0902123675</v>
+        <v>411195.7272399327</v>
       </c>
       <c r="R7" t="n">
-        <v>6710182.210000515</v>
+        <v>6710149.949488859</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102127489</v>
+        <v>102127458</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>411289.3351326549</v>
+        <v>410938.7642541217</v>
       </c>
       <c r="R8" t="n">
-        <v>6710345.17838044</v>
+        <v>6709974.006810497</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102126341</v>
+        <v>102127501</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>411311.0937174059</v>
+        <v>411266.0902123675</v>
       </c>
       <c r="R9" t="n">
-        <v>6710367.302564125</v>
+        <v>6710182.210000515</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102127471</v>
+        <v>102127465</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>77177</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>411204.0193730929</v>
+        <v>410938.739980302</v>
       </c>
       <c r="R10" t="n">
-        <v>6710186.198190426</v>
+        <v>6709973.02214841</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102127469</v>
+        <v>102127504</v>
       </c>
       <c r="B11" t="n">
-        <v>89412</v>
+        <v>78098</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>411203.9951711143</v>
+        <v>410934.0028326925</v>
       </c>
       <c r="R11" t="n">
-        <v>6710185.21358655</v>
+        <v>6709981.021008047</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>102127508</v>
+        <v>102127489</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>410919.3226665345</v>
+        <v>411289.3351326549</v>
       </c>
       <c r="R12" t="n">
-        <v>6710006.014335259</v>
+        <v>6710345.17838044</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102127458</v>
+        <v>102126327</v>
       </c>
       <c r="B13" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>410938.7642541217</v>
+        <v>410957.0345095119</v>
       </c>
       <c r="R13" t="n">
-        <v>6709974.006810497</v>
+        <v>6709974.541719727</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2012,22 +2012,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102127465</v>
+        <v>102126341</v>
       </c>
       <c r="B14" t="n">
-        <v>77177</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>410938.739980302</v>
+        <v>411311.0937174059</v>
       </c>
       <c r="R14" t="n">
-        <v>6709973.02214841</v>
+        <v>6710367.302564125</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102127504</v>
+        <v>102126321</v>
       </c>
       <c r="B15" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>410934.0028326925</v>
+        <v>410950.9591356653</v>
       </c>
       <c r="R15" t="n">
-        <v>6709981.021008047</v>
+        <v>6709968.287268362</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2236,19 +2236,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102126327</v>
+        <v>102127471</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>410957.0345095119</v>
+        <v>411204.0193730929</v>
       </c>
       <c r="R16" t="n">
-        <v>6709974.541719727</v>
+        <v>6710186.198190426</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2348,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102126321</v>
+        <v>102127469</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>410950.9591356653</v>
+        <v>411203.9951711143</v>
       </c>
       <c r="R17" t="n">
-        <v>6709968.287268362</v>
+        <v>6710185.21358655</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2460,12 +2460,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
